--- a/biology/Médecine/Rage_(maladie_professionnelle)/Rage_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Rage_(maladie_professionnelle)/Rage_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une infection par le virus de la rage peut être reconnue comme maladie professionnelle en France, sous certaines conditions.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical. Pour la description clinique de la maladie se reporter à l'article suivant :
@@ -514,10 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Régime général
-Régime agricole
-Données professionnelles
-Données médicales</t>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rage_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rage_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
